--- a/Code/Results/Cases/Case_5_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.468573612270404</v>
+        <v>2.040902506846123</v>
       </c>
       <c r="C2">
-        <v>0.9129399490931007</v>
+        <v>0.4566974898804972</v>
       </c>
       <c r="D2">
-        <v>0.02660178185347206</v>
+        <v>0.03342088562028067</v>
       </c>
       <c r="E2">
-        <v>0.05657698445105197</v>
+        <v>0.09953734412203374</v>
       </c>
       <c r="F2">
-        <v>6.697010738351622</v>
+        <v>4.747147292256642</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.290242307405066</v>
+        <v>0.2477278073313158</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.985647043942436</v>
+        <v>1.944238781831018</v>
       </c>
       <c r="C3">
-        <v>0.7808035465561147</v>
+        <v>0.4308694591487665</v>
       </c>
       <c r="D3">
-        <v>0.02233706889634846</v>
+        <v>0.0332331319724446</v>
       </c>
       <c r="E3">
-        <v>0.05076885660304242</v>
+        <v>0.09944323500848284</v>
       </c>
       <c r="F3">
-        <v>5.94351753603263</v>
+        <v>4.569403720894144</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2563432759090887</v>
+        <v>0.2409718732440496</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.698000648730556</v>
+        <v>1.886734367927602</v>
       </c>
       <c r="C4">
-        <v>0.7022083784691517</v>
+        <v>0.4154811655076855</v>
       </c>
       <c r="D4">
-        <v>0.01984411156198362</v>
+        <v>0.03314560468927041</v>
       </c>
       <c r="E4">
-        <v>0.04737292720258424</v>
+        <v>0.09946038421886882</v>
       </c>
       <c r="F4">
-        <v>5.496536916839375</v>
+        <v>4.462108826433024</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2362731335290107</v>
+        <v>0.2369674581043597</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.582689035803867</v>
+        <v>1.863761877539503</v>
       </c>
       <c r="C5">
-        <v>0.6707204676046672</v>
+        <v>0.409327414213692</v>
       </c>
       <c r="D5">
-        <v>0.01885461562918778</v>
+        <v>0.03311680360529223</v>
       </c>
       <c r="E5">
-        <v>0.04602712259248776</v>
+        <v>0.09948619738364073</v>
       </c>
       <c r="F5">
-        <v>5.317764045469943</v>
+        <v>4.418837834462039</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.228256045901432</v>
+        <v>0.2353714024204976</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.563648054981684</v>
+        <v>1.85997505621549</v>
       </c>
       <c r="C6">
-        <v>0.6655219318878949</v>
+        <v>0.408312628618944</v>
       </c>
       <c r="D6">
-        <v>0.01869176629814362</v>
+        <v>0.03311243270172781</v>
       </c>
       <c r="E6">
-        <v>0.04580582406264</v>
+        <v>0.09949162013109714</v>
       </c>
       <c r="F6">
-        <v>5.288267578320045</v>
+        <v>4.411679755150089</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2269338930304201</v>
+        <v>0.2351085286131536</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.696438195829046</v>
+        <v>1.886422690812481</v>
       </c>
       <c r="C7">
-        <v>0.7017816541098796</v>
+        <v>0.4153977011965253</v>
       </c>
       <c r="D7">
-        <v>0.01983066633049901</v>
+        <v>0.03314518861003535</v>
       </c>
       <c r="E7">
-        <v>0.04735462893756548</v>
+        <v>0.09946065614474975</v>
       </c>
       <c r="F7">
-        <v>5.494112953628019</v>
+        <v>4.461523439782894</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2361643890997129</v>
+        <v>0.2369457887704414</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.300010363258764</v>
+        <v>2.007187204375498</v>
       </c>
       <c r="C8">
-        <v>0.8667897431876952</v>
+        <v>0.4476936866682308</v>
       </c>
       <c r="D8">
-        <v>0.02510190675165802</v>
+        <v>0.03335031991365511</v>
       </c>
       <c r="E8">
-        <v>0.05453593550408442</v>
+        <v>0.09948933134743498</v>
       </c>
       <c r="F8">
-        <v>6.433592380815014</v>
+        <v>4.685473094683658</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2783831681010867</v>
+        <v>0.2453682961404269</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.571237330175563</v>
+        <v>2.25884513608662</v>
       </c>
       <c r="C9">
-        <v>1.215717990871042</v>
+        <v>0.5148137540719517</v>
       </c>
       <c r="D9">
-        <v>0.03671121169750791</v>
+        <v>0.03397793590968234</v>
       </c>
       <c r="E9">
-        <v>0.07022307140863404</v>
+        <v>0.1001412186587949</v>
       </c>
       <c r="F9">
-        <v>8.430011956717806</v>
+        <v>5.139728110102169</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.36842328324677</v>
+        <v>0.2630435676028782</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.587768295456158</v>
+        <v>2.453063006835805</v>
       </c>
       <c r="C10">
-        <v>1.496416302195428</v>
+        <v>0.566522460298188</v>
       </c>
       <c r="D10">
-        <v>0.04648627470734823</v>
+        <v>0.03458366768172283</v>
       </c>
       <c r="E10">
-        <v>0.08315735432223192</v>
+        <v>0.1009852513941496</v>
       </c>
       <c r="F10">
-        <v>10.04084318037098</v>
+        <v>5.483382930874399</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4412656158573469</v>
+        <v>0.2767630222231929</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.076591781754814</v>
+        <v>2.543506417202082</v>
       </c>
       <c r="C11">
-        <v>1.632000335732073</v>
+        <v>0.5905860372108123</v>
       </c>
       <c r="D11">
-        <v>0.05134164564007193</v>
+        <v>0.0348922298321952</v>
       </c>
       <c r="E11">
-        <v>0.08947297613417149</v>
+        <v>0.1014489930892886</v>
       </c>
       <c r="F11">
-        <v>10.81937519786129</v>
+        <v>5.642031787625513</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4765125088914743</v>
+        <v>0.2831696934214847</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.26640339419157</v>
+        <v>2.578060842261095</v>
       </c>
       <c r="C12">
-        <v>1.684760249483304</v>
+        <v>0.5997776360854346</v>
       </c>
       <c r="D12">
-        <v>0.05325406278769407</v>
+        <v>0.03501395315173994</v>
       </c>
       <c r="E12">
-        <v>0.09194020874672759</v>
+        <v>0.1016361121986229</v>
       </c>
       <c r="F12">
-        <v>11.12231479388481</v>
+        <v>5.702453857129399</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4902337014480622</v>
+        <v>0.2856200257044321</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.22529800106355</v>
+        <v>2.570605268900181</v>
       </c>
       <c r="C13">
-        <v>1.673329183237286</v>
+        <v>0.5977945128634587</v>
       </c>
       <c r="D13">
-        <v>0.0528386277184083</v>
+        <v>0.03498751882540319</v>
       </c>
       <c r="E13">
-        <v>0.0914052304003512</v>
+        <v>0.1015953002134466</v>
       </c>
       <c r="F13">
-        <v>11.05668134150505</v>
+        <v>5.689425341011827</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4872606622267455</v>
+        <v>0.2850912163601578</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.092107427649978</v>
+        <v>2.546343081978478</v>
       </c>
       <c r="C14">
-        <v>1.636310659245794</v>
+        <v>0.5913406389540796</v>
       </c>
       <c r="D14">
-        <v>0.05149740299255967</v>
+        <v>0.0349021455745202</v>
       </c>
       <c r="E14">
-        <v>0.08967435148528224</v>
+        <v>0.1014641565882215</v>
       </c>
       <c r="F14">
-        <v>10.84412519932107</v>
+        <v>5.646995761260882</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4776334017634412</v>
+        <v>0.2833707948191346</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.011167686879332</v>
+        <v>2.531521710179845</v>
       </c>
       <c r="C15">
-        <v>1.613829849220735</v>
+        <v>0.5873978185241526</v>
       </c>
       <c r="D15">
-        <v>0.0506859833492328</v>
+        <v>0.03485049110317817</v>
       </c>
       <c r="E15">
-        <v>0.08862444689867033</v>
+        <v>0.1013853274416121</v>
       </c>
       <c r="F15">
-        <v>10.71503876239245</v>
+        <v>5.621051725893608</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.471787500452848</v>
+        <v>0.2823201604593351</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.556426723642801</v>
+        <v>2.447194812653265</v>
       </c>
       <c r="C16">
-        <v>1.487737016850019</v>
+        <v>0.5649608582937162</v>
       </c>
       <c r="D16">
-        <v>0.04617839202953178</v>
+        <v>0.03456417780150645</v>
       </c>
       <c r="E16">
-        <v>0.08275438973743476</v>
+        <v>0.1009565533944112</v>
       </c>
       <c r="F16">
-        <v>9.991009378950821</v>
+        <v>5.473062512912861</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.439010280670999</v>
+        <v>0.276347702050856</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.284802838418898</v>
+        <v>2.39600217028277</v>
       </c>
       <c r="C17">
-        <v>1.412585430972854</v>
+        <v>0.5513360935781861</v>
       </c>
       <c r="D17">
-        <v>0.04352740940003486</v>
+        <v>0.03439708108678019</v>
       </c>
       <c r="E17">
-        <v>0.07927257979891067</v>
+        <v>0.1007139751532975</v>
       </c>
       <c r="F17">
-        <v>9.559555329251225</v>
+        <v>5.382878081510398</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4194883779268253</v>
+        <v>0.2727265280354061</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.130991756376773</v>
+        <v>2.366754213258105</v>
       </c>
       <c r="C18">
-        <v>1.370082895001133</v>
+        <v>0.5435503239974651</v>
       </c>
       <c r="D18">
-        <v>0.04204001755750397</v>
+        <v>0.03430407075791919</v>
       </c>
       <c r="E18">
-        <v>0.07730960235530659</v>
+        <v>0.1005819581147449</v>
       </c>
       <c r="F18">
-        <v>9.315590929015968</v>
+        <v>5.331223898052514</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.408453519705418</v>
+        <v>0.2706592862236903</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.079305157285773</v>
+        <v>2.356885004639935</v>
       </c>
       <c r="C19">
-        <v>1.355808833910601</v>
+        <v>0.540922883831513</v>
       </c>
       <c r="D19">
-        <v>0.04154243116181533</v>
+        <v>0.03427310742496559</v>
       </c>
       <c r="E19">
-        <v>0.0766514212012197</v>
+        <v>0.1005385477623157</v>
       </c>
       <c r="F19">
-        <v>9.23366790301327</v>
+        <v>5.313771681972213</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4047486666028135</v>
+        <v>0.2699620129090761</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.313461299557844</v>
+        <v>2.401431324697967</v>
       </c>
       <c r="C20">
-        <v>1.420508817836549</v>
+        <v>0.5527812015207019</v>
       </c>
       <c r="D20">
-        <v>0.04380564441282075</v>
+        <v>0.03441454711504832</v>
       </c>
       <c r="E20">
-        <v>0.07963903066943701</v>
+        <v>0.1007390207598</v>
       </c>
       <c r="F20">
-        <v>9.605039918332295</v>
+        <v>5.392455771388796</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4215460185762936</v>
+        <v>0.2731103943979463</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.131092720098934</v>
+        <v>2.553461147161443</v>
       </c>
       <c r="C21">
-        <v>1.647142841052073</v>
+        <v>0.5932341357348037</v>
       </c>
       <c r="D21">
-        <v>0.05188921209503405</v>
+        <v>0.03492708834155422</v>
       </c>
       <c r="E21">
-        <v>0.09018057527980972</v>
+        <v>0.1015023639583781</v>
       </c>
       <c r="F21">
-        <v>10.90632340758998</v>
+        <v>5.659448893999695</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4804503677266609</v>
+        <v>0.2838754621579227</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.693477306613147</v>
+        <v>2.654604143100244</v>
       </c>
       <c r="C22">
-        <v>1.803707263779074</v>
+        <v>0.6201350695391739</v>
       </c>
       <c r="D22">
-        <v>0.05761233387626419</v>
+        <v>0.03529055585809715</v>
       </c>
       <c r="E22">
-        <v>0.09751985974728328</v>
+        <v>0.1020683622280139</v>
       </c>
       <c r="F22">
-        <v>11.80515760434486</v>
+        <v>5.835961989752718</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5211733053364043</v>
+        <v>0.2910527067989932</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.390398251189424</v>
+        <v>2.600457565000625</v>
       </c>
       <c r="C23">
-        <v>1.719260574816929</v>
+        <v>0.6057347166830596</v>
       </c>
       <c r="D23">
-        <v>0.05451152800593917</v>
+        <v>0.0350939156487442</v>
       </c>
       <c r="E23">
-        <v>0.09355620258918762</v>
+        <v>0.1017601248553177</v>
       </c>
       <c r="F23">
-        <v>11.32039519361615</v>
+        <v>5.741565063850715</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4992071567050829</v>
+        <v>0.2872089641973332</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.300497557954827</v>
+        <v>2.398976233155679</v>
       </c>
       <c r="C24">
-        <v>1.416924484946435</v>
+        <v>0.5521277210328321</v>
       </c>
       <c r="D24">
-        <v>0.04367974115469053</v>
+        <v>0.03440664121565362</v>
       </c>
       <c r="E24">
-        <v>0.0794732384760799</v>
+        <v>0.10072767445617</v>
       </c>
       <c r="F24">
-        <v>9.584463725771172</v>
+        <v>5.388125094268929</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4206151770577407</v>
+        <v>0.2729368029132075</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.215271453928665</v>
+        <v>2.189148089425828</v>
       </c>
       <c r="C25">
-        <v>1.117794532539847</v>
+        <v>0.496241710876518</v>
       </c>
       <c r="D25">
-        <v>0.03339128595117558</v>
+        <v>0.03378328206603243</v>
       </c>
       <c r="E25">
-        <v>0.06576791678809002</v>
+        <v>0.09990090330498091</v>
       </c>
       <c r="F25">
-        <v>7.868800361812674</v>
+        <v>5.015151403091835</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3430795295320053</v>
+        <v>0.2581351263488756</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.040902506846123</v>
+        <v>3.468573612270404</v>
       </c>
       <c r="C2">
-        <v>0.4566974898804972</v>
+        <v>0.9129399490930723</v>
       </c>
       <c r="D2">
-        <v>0.03342088562028067</v>
+        <v>0.02660178185319495</v>
       </c>
       <c r="E2">
-        <v>0.09953734412203374</v>
+        <v>0.05657698445107684</v>
       </c>
       <c r="F2">
-        <v>4.747147292256642</v>
+        <v>6.697010738351736</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2477278073313158</v>
+        <v>0.2902423074050517</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.944238781831018</v>
+        <v>2.985647043942492</v>
       </c>
       <c r="C3">
-        <v>0.4308694591487665</v>
+        <v>0.7808035465565979</v>
       </c>
       <c r="D3">
-        <v>0.0332331319724446</v>
+        <v>0.02233706889608911</v>
       </c>
       <c r="E3">
-        <v>0.09944323500848284</v>
+        <v>0.05076885660305663</v>
       </c>
       <c r="F3">
-        <v>4.569403720894144</v>
+        <v>5.943517536032687</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2409718732440496</v>
+        <v>0.2563432759092308</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.886734367927602</v>
+        <v>2.698000648730726</v>
       </c>
       <c r="C4">
-        <v>0.4154811655076855</v>
+        <v>0.7022083784693223</v>
       </c>
       <c r="D4">
-        <v>0.03314560468927041</v>
+        <v>0.01984411156176336</v>
       </c>
       <c r="E4">
-        <v>0.09946038421886882</v>
+        <v>0.04737292720258779</v>
       </c>
       <c r="F4">
-        <v>4.462108826433024</v>
+        <v>5.496536916839375</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2369674581043597</v>
+        <v>0.236273133529096</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863761877539503</v>
+        <v>2.582689035803867</v>
       </c>
       <c r="C5">
-        <v>0.409327414213692</v>
+        <v>0.670720467605264</v>
       </c>
       <c r="D5">
-        <v>0.03311680360529223</v>
+        <v>0.01885461562958923</v>
       </c>
       <c r="E5">
-        <v>0.09948619738364073</v>
+        <v>0.04602712259251973</v>
       </c>
       <c r="F5">
-        <v>4.418837834462039</v>
+        <v>5.317764045469943</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2353714024204976</v>
+        <v>0.2282560459013609</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.85997505621549</v>
+        <v>2.563648054981854</v>
       </c>
       <c r="C6">
-        <v>0.408312628618944</v>
+        <v>0.665521931888378</v>
       </c>
       <c r="D6">
-        <v>0.03311243270172781</v>
+        <v>0.01869176629814362</v>
       </c>
       <c r="E6">
-        <v>0.09949162013109714</v>
+        <v>0.04580582406267553</v>
       </c>
       <c r="F6">
-        <v>4.411679755150089</v>
+        <v>5.288267578320102</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2351085286131536</v>
+        <v>0.2269338930303348</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.886422690812481</v>
+        <v>2.696438195828932</v>
       </c>
       <c r="C7">
-        <v>0.4153977011965253</v>
+        <v>0.7017816541093396</v>
       </c>
       <c r="D7">
-        <v>0.03314518861003535</v>
+        <v>0.01983066633032493</v>
       </c>
       <c r="E7">
-        <v>0.09946065614474975</v>
+        <v>0.04735462893751929</v>
       </c>
       <c r="F7">
-        <v>4.461523439782894</v>
+        <v>5.494112953628019</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2369457887704414</v>
+        <v>0.2361643890994998</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.007187204375498</v>
+        <v>3.300010363258707</v>
       </c>
       <c r="C8">
-        <v>0.4476936866682308</v>
+        <v>0.8667897431876099</v>
       </c>
       <c r="D8">
-        <v>0.03335031991365511</v>
+        <v>0.02510190675188539</v>
       </c>
       <c r="E8">
-        <v>0.09948933134743498</v>
+        <v>0.05453593550416613</v>
       </c>
       <c r="F8">
-        <v>4.685473094683658</v>
+        <v>6.433592380814986</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2453682961404269</v>
+        <v>0.2783831681009872</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.25884513608662</v>
+        <v>4.571237330175279</v>
       </c>
       <c r="C9">
-        <v>0.5148137540719517</v>
+        <v>1.215717990869905</v>
       </c>
       <c r="D9">
-        <v>0.03397793590968234</v>
+        <v>0.03671121169760738</v>
       </c>
       <c r="E9">
-        <v>0.1001412186587949</v>
+        <v>0.07022307140859141</v>
       </c>
       <c r="F9">
-        <v>5.139728110102169</v>
+        <v>8.430011956717948</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2630435676028782</v>
+        <v>0.3684232832467558</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.453063006835805</v>
+        <v>5.587768295456328</v>
       </c>
       <c r="C10">
-        <v>0.566522460298188</v>
+        <v>1.496416302195826</v>
       </c>
       <c r="D10">
-        <v>0.03458366768172283</v>
+        <v>0.04648627470714928</v>
       </c>
       <c r="E10">
-        <v>0.1009852513941496</v>
+        <v>0.08315735432231008</v>
       </c>
       <c r="F10">
-        <v>5.483382930874399</v>
+        <v>10.04084318037096</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2767630222231929</v>
+        <v>0.4412656158572901</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.543506417202082</v>
+        <v>6.076591781755326</v>
       </c>
       <c r="C11">
-        <v>0.5905860372108123</v>
+        <v>1.632000335733437</v>
       </c>
       <c r="D11">
-        <v>0.0348922298321952</v>
+        <v>0.05134164564000798</v>
       </c>
       <c r="E11">
-        <v>0.1014489930892886</v>
+        <v>0.08947297613425675</v>
       </c>
       <c r="F11">
-        <v>5.642031787625513</v>
+        <v>10.8193751978614</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2831696934214847</v>
+        <v>0.4765125088914886</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.578060842261095</v>
+        <v>6.266403394191514</v>
       </c>
       <c r="C12">
-        <v>0.5997776360854346</v>
+        <v>1.684760249483702</v>
       </c>
       <c r="D12">
-        <v>0.03501395315173994</v>
+        <v>0.05325406278724643</v>
       </c>
       <c r="E12">
-        <v>0.1016361121986229</v>
+        <v>0.09194020874668141</v>
       </c>
       <c r="F12">
-        <v>5.702453857129399</v>
+        <v>11.12231479388475</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2856200257044321</v>
+        <v>0.4902337014482185</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.570605268900181</v>
+        <v>6.225298001063322</v>
       </c>
       <c r="C13">
-        <v>0.5977945128634587</v>
+        <v>1.673329183236319</v>
       </c>
       <c r="D13">
-        <v>0.03498751882540319</v>
+        <v>0.05283862771884174</v>
       </c>
       <c r="E13">
-        <v>0.1015953002134466</v>
+        <v>0.09140523040034054</v>
       </c>
       <c r="F13">
-        <v>5.689425341011827</v>
+        <v>11.05668134150505</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2850912163601578</v>
+        <v>0.487260662226916</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.546343081978478</v>
+        <v>6.092107427650831</v>
       </c>
       <c r="C14">
-        <v>0.5913406389540796</v>
+        <v>1.636310659245851</v>
       </c>
       <c r="D14">
-        <v>0.0349021455745202</v>
+        <v>0.0514974029926023</v>
       </c>
       <c r="E14">
-        <v>0.1014641565882215</v>
+        <v>0.08967435148529646</v>
       </c>
       <c r="F14">
-        <v>5.646995761260882</v>
+        <v>10.84412519932101</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2833707948191346</v>
+        <v>0.4776334017635122</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.531521710179845</v>
+        <v>6.011167686879048</v>
       </c>
       <c r="C15">
-        <v>0.5873978185241526</v>
+        <v>1.613829849220167</v>
       </c>
       <c r="D15">
-        <v>0.03485049110317817</v>
+        <v>0.05068598334967334</v>
       </c>
       <c r="E15">
-        <v>0.1013853274416121</v>
+        <v>0.08862444689859927</v>
       </c>
       <c r="F15">
-        <v>5.621051725893608</v>
+        <v>10.71503876239251</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2823201604593351</v>
+        <v>0.4717875004527912</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.447194812653265</v>
+        <v>5.556426723642971</v>
       </c>
       <c r="C16">
-        <v>0.5649608582937162</v>
+        <v>1.487737016849962</v>
       </c>
       <c r="D16">
-        <v>0.03456417780150645</v>
+        <v>0.04617839202955309</v>
       </c>
       <c r="E16">
-        <v>0.1009565533944112</v>
+        <v>0.08275438973749161</v>
       </c>
       <c r="F16">
-        <v>5.473062512912861</v>
+        <v>9.991009378950821</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.276347702050856</v>
+        <v>0.4390102806709564</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.39600217028277</v>
+        <v>5.284802838419125</v>
       </c>
       <c r="C17">
-        <v>0.5513360935781861</v>
+        <v>1.412585430973763</v>
       </c>
       <c r="D17">
-        <v>0.03439708108678019</v>
+        <v>0.04352740940020539</v>
       </c>
       <c r="E17">
-        <v>0.1007139751532975</v>
+        <v>0.07927257979899593</v>
       </c>
       <c r="F17">
-        <v>5.382878081510398</v>
+        <v>9.559555329251424</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2727265280354061</v>
+        <v>0.4194883779269247</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.366754213258105</v>
+        <v>5.130991756376829</v>
       </c>
       <c r="C18">
-        <v>0.5435503239974651</v>
+        <v>1.370082895001133</v>
       </c>
       <c r="D18">
-        <v>0.03430407075791919</v>
+        <v>0.04204001755789477</v>
       </c>
       <c r="E18">
-        <v>0.1005819581147449</v>
+        <v>0.07730960235540252</v>
       </c>
       <c r="F18">
-        <v>5.331223898052514</v>
+        <v>9.315590929016025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2706592862236903</v>
+        <v>0.4084535197055885</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.356885004639935</v>
+        <v>5.079305157285944</v>
       </c>
       <c r="C19">
-        <v>0.540922883831513</v>
+        <v>1.355808833909748</v>
       </c>
       <c r="D19">
-        <v>0.03427310742496559</v>
+        <v>0.04154243116219902</v>
       </c>
       <c r="E19">
-        <v>0.1005385477623157</v>
+        <v>0.07665142120119839</v>
       </c>
       <c r="F19">
-        <v>5.313771681972213</v>
+        <v>9.233667903013355</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2699620129090761</v>
+        <v>0.4047486666029414</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.401431324697967</v>
+        <v>5.313461299558185</v>
       </c>
       <c r="C20">
-        <v>0.5527812015207019</v>
+        <v>1.420508817836605</v>
       </c>
       <c r="D20">
-        <v>0.03441454711504832</v>
+        <v>0.04380564441238022</v>
       </c>
       <c r="E20">
-        <v>0.1007390207598</v>
+        <v>0.07963903066932332</v>
       </c>
       <c r="F20">
-        <v>5.392455771388796</v>
+        <v>9.605039918332238</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2731103943979463</v>
+        <v>0.4215460185764073</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.553461147161443</v>
+        <v>6.131092720098934</v>
       </c>
       <c r="C21">
-        <v>0.5932341357348037</v>
+        <v>1.647142841052073</v>
       </c>
       <c r="D21">
-        <v>0.03492708834155422</v>
+        <v>0.05188921209507669</v>
       </c>
       <c r="E21">
-        <v>0.1015023639583781</v>
+        <v>0.09018057527982037</v>
       </c>
       <c r="F21">
-        <v>5.659448893999695</v>
+        <v>10.90632340758987</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2838754621579227</v>
+        <v>0.4804503677264194</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.654604143100244</v>
+        <v>6.693477306613261</v>
       </c>
       <c r="C22">
-        <v>0.6201350695391739</v>
+        <v>1.803707263779245</v>
       </c>
       <c r="D22">
-        <v>0.03529055585809715</v>
+        <v>0.05761233387637787</v>
       </c>
       <c r="E22">
-        <v>0.1020683622280139</v>
+        <v>0.09751985974719091</v>
       </c>
       <c r="F22">
-        <v>5.835961989752718</v>
+        <v>11.80515760434457</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2910527067989932</v>
+        <v>0.5211733053364895</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.600457565000625</v>
+        <v>6.39039825118931</v>
       </c>
       <c r="C23">
-        <v>0.6057347166830596</v>
+        <v>1.719260574817326</v>
       </c>
       <c r="D23">
-        <v>0.0350939156487442</v>
+        <v>0.05451152800640813</v>
       </c>
       <c r="E23">
-        <v>0.1017601248553177</v>
+        <v>0.09355620258919828</v>
       </c>
       <c r="F23">
-        <v>5.741565063850715</v>
+        <v>11.32039519361609</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2872089641973332</v>
+        <v>0.4992071567048981</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.398976233155679</v>
+        <v>5.30049755795477</v>
       </c>
       <c r="C24">
-        <v>0.5521277210328321</v>
+        <v>1.41692448494598</v>
       </c>
       <c r="D24">
-        <v>0.03440664121565362</v>
+        <v>0.04367974115488238</v>
       </c>
       <c r="E24">
-        <v>0.10072767445617</v>
+        <v>0.07947323847612964</v>
       </c>
       <c r="F24">
-        <v>5.388125094268929</v>
+        <v>9.584463725771172</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2729368029132075</v>
+        <v>0.4206151770578117</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.189148089425828</v>
+        <v>4.215271453928608</v>
       </c>
       <c r="C25">
-        <v>0.496241710876518</v>
+        <v>1.11779453253979</v>
       </c>
       <c r="D25">
-        <v>0.03378328206603243</v>
+        <v>0.03339128595114005</v>
       </c>
       <c r="E25">
-        <v>0.09990090330498091</v>
+        <v>0.06576791678815042</v>
       </c>
       <c r="F25">
-        <v>5.015151403091835</v>
+        <v>7.868800361812674</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2581351263488756</v>
+        <v>0.3430795295318063</v>
       </c>
       <c r="K25">
         <v>0</v>
